--- a/data2/pareto50.xlsx
+++ b/data2/pareto50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004791757064523466</v>
+        <v>0.004791757726395753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000781303509927291</v>
+        <v>0.0007813039001524819</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002288413830975243</v>
+        <v>0.002288414744028531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003758883918143643</v>
+        <v>0.0003758874907965164</v>
       </c>
     </row>
     <row r="4">
@@ -505,66 +505,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001280133347426345</v>
+        <v>0.001280820366687428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001753738572009153</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CTAS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.001123463416944211</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0001482041413653911</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SNPS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.001076807426562563</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0001280042808616382</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0009929382738462311</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0001108292658202764</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PEP</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0003452033283062954</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.198381845562408e-05</v>
+        <v>0.0001526327418421319</v>
       </c>
     </row>
   </sheetData>

--- a/data2/pareto50.xlsx
+++ b/data2/pareto50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004791757726395753</v>
+        <v>0.00479175694336796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007813039001524819</v>
+        <v>0.0007813033556760727</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002288414744028531</v>
+        <v>0.002288414345067223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003758874907965164</v>
+        <v>0.0003758881336930636</v>
       </c>
     </row>
     <row r="4">
@@ -505,14 +505,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001280133222899704</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0001753738237623097</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>CTAS</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.001280820366687428</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0001526327418421319</v>
+      <c r="B7" t="n">
+        <v>0.001123462986331379</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0001482042936250954</v>
       </c>
     </row>
   </sheetData>

--- a/data2/pareto50.xlsx
+++ b/data2/pareto50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00479175694336796</v>
+        <v>0.004791757665818062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007813033556760727</v>
+        <v>0.0007813032928621058</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002288414345067223</v>
+        <v>0.002288414088021248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003758881336930636</v>
+        <v>0.0003758880376423061</v>
       </c>
     </row>
     <row r="4">
@@ -505,27 +505,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001280133222899704</v>
+        <v>0.00128081856973723</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001753738237623097</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CTAS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.001123462986331379</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0001482042936250954</v>
+        <v>0.0001526322847375969</v>
       </c>
     </row>
   </sheetData>
